--- a/frontend/public/Checklist.xlsx
+++ b/frontend/public/Checklist.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="11445"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Task Name</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>Task Name</t>
   </si>
   <si>
     <t>Budgeted Hours</t>
@@ -33,6 +29,9 @@
   <si>
     <t>Budgeted Minutes</t>
   </si>
+  <si>
+    <t>ABC</t>
+  </si>
 </sst>
 </file>
 
@@ -40,7 +39,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -73,7 +72,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -81,7 +81,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -235,16 +235,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -366,102 +370,79 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>